--- a/doc/Q系列.xlsx
+++ b/doc/Q系列.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="cpu" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="cpu" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,285 +21,285 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="124">
-  <si>
-    <t xml:space="preserve">CPU模块</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I/O点数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">程序容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外围连接端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">耗电电流</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是否支持冗余</t>
-  </si>
-  <si>
-    <t xml:space="preserve">主基板</t>
-  </si>
-  <si>
-    <t xml:space="preserve">输入电压</t>
-  </si>
-  <si>
-    <t xml:space="preserve">输出电流</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基板接口数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是否支持超薄型电源</t>
-  </si>
-  <si>
-    <t xml:space="preserve">电源是否支持冗余</t>
-  </si>
-  <si>
-    <t xml:space="preserve">扩展基板</t>
-  </si>
-  <si>
-    <t xml:space="preserve">连接电缆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">长度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">电源</t>
-  </si>
-  <si>
-    <t xml:space="preserve">输出电压</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是否是超薄型电源模块</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是否是冗余电源模块</t>
-  </si>
-  <si>
-    <t xml:space="preserve">存储卡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">存储类型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">存储容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">存储卡电池</t>
-  </si>
-  <si>
-    <t xml:space="preserve">存储卡适配器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPU电池</t>
-  </si>
-  <si>
-    <t xml:space="preserve">容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是否带底座</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I/O槽空盖板</t>
-  </si>
-  <si>
-    <t xml:space="preserve">数字量输入模块</t>
-  </si>
-  <si>
-    <t xml:space="preserve">输入点数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC输入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC输入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">电压混合输入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">共阳极</t>
-  </si>
-  <si>
-    <t xml:space="preserve">共阴极</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC传感器输入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">共阳极/共阴极</t>
-  </si>
-  <si>
-    <t xml:space="preserve">端子排型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">连接器型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">消耗电流</t>
-  </si>
-  <si>
-    <t xml:space="preserve">数字量输出模块</t>
-  </si>
-  <si>
-    <t xml:space="preserve">输出点数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">继电器输出</t>
-  </si>
-  <si>
-    <t xml:space="preserve">晶体管输出</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTL输出</t>
-  </si>
-  <si>
-    <t xml:space="preserve">无保险丝</t>
-  </si>
-  <si>
-    <t xml:space="preserve">带短路保护</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是否独立输出</t>
-  </si>
-  <si>
-    <t xml:space="preserve">数字量输入输出混合模块</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中断模块</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">连接器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">焊接类性</t>
-  </si>
-  <si>
-    <t xml:space="preserve">端子台适配器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">连接器/端子排适配器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">漏型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">源型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">漏型输入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">源型输入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">电缆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">可由于A6TB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">可由于A6TE-SRN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">模拟量输入模块</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通道数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">输入类型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">模拟量输出类型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">输出类型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通道隔离模拟量输出模块</t>
-  </si>
-  <si>
-    <t xml:space="preserve">温度输入模块</t>
-  </si>
-  <si>
-    <t xml:space="preserve">温度控制模块</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是否带检测</t>
-  </si>
-  <si>
-    <t xml:space="preserve">回路控制模块</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PID模块</t>
-  </si>
-  <si>
-    <t xml:space="preserve">定位模块</t>
-  </si>
-  <si>
-    <t xml:space="preserve">可控制轴数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是否带计数器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通道隔离脉冲输入模块</t>
-  </si>
-  <si>
-    <t xml:space="preserve">高速计数模块</t>
-  </si>
-  <si>
-    <t xml:space="preserve">脉冲速率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">输入电压类型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通讯模块</t>
-  </si>
-  <si>
-    <t xml:space="preserve">光纤类型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是否带外部供电</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是否远程站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">双环</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是否同轴电缆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通讯方式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC-LINK  模块</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC-LINK/LT模块</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL-NETWORK 模块</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS-I主站模块</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modbus Master/Slave模块</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modbus TCP/IP 模块</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="125">
+  <si>
+    <t>CPU模块</t>
+  </si>
+  <si>
+    <t>I/O点数</t>
+  </si>
+  <si>
+    <t>程序容量</t>
+  </si>
+  <si>
+    <t>外围连接端口</t>
+  </si>
+  <si>
+    <t>耗电电流</t>
+  </si>
+  <si>
+    <t>是否支持冗余</t>
+  </si>
+  <si>
+    <t>主基板</t>
+  </si>
+  <si>
+    <t>输入电压</t>
+  </si>
+  <si>
+    <t>输出电流</t>
+  </si>
+  <si>
+    <t>基板接口数量</t>
+  </si>
+  <si>
+    <t>是否支持超薄型电源</t>
+  </si>
+  <si>
+    <t>电源是否支持冗余</t>
+  </si>
+  <si>
+    <t>扩展基板</t>
+  </si>
+  <si>
+    <t>连接电缆</t>
+  </si>
+  <si>
+    <t>长度</t>
+  </si>
+  <si>
+    <t>电源</t>
+  </si>
+  <si>
+    <t>输出电压</t>
+  </si>
+  <si>
+    <t>是否是超薄型电源模块</t>
+  </si>
+  <si>
+    <t>是否是冗余电源模块</t>
+  </si>
+  <si>
+    <t>存储卡</t>
+  </si>
+  <si>
+    <t>存储类型</t>
+  </si>
+  <si>
+    <t>存储容量</t>
+  </si>
+  <si>
+    <t>存储卡电池</t>
+  </si>
+  <si>
+    <t>存储卡适配器</t>
+  </si>
+  <si>
+    <t>CPU电池</t>
+  </si>
+  <si>
+    <t>容量</t>
+  </si>
+  <si>
+    <t>是否带底座</t>
+  </si>
+  <si>
+    <t>I/O槽空盖板</t>
+  </si>
+  <si>
+    <t>数字量输入模块</t>
+  </si>
+  <si>
+    <t>输入点数</t>
+  </si>
+  <si>
+    <t>AC输入</t>
+  </si>
+  <si>
+    <t>DC输入</t>
+  </si>
+  <si>
+    <t>电压混合输入</t>
+  </si>
+  <si>
+    <t>共阳极</t>
+  </si>
+  <si>
+    <t>共阴极</t>
+  </si>
+  <si>
+    <t>DC传感器输入</t>
+  </si>
+  <si>
+    <t>共阳极/共阴极</t>
+  </si>
+  <si>
+    <t>端子排型</t>
+  </si>
+  <si>
+    <t>连接器型</t>
+  </si>
+  <si>
+    <t>消耗电流</t>
+  </si>
+  <si>
+    <t>数字量输出模块</t>
+  </si>
+  <si>
+    <t>输出点数</t>
+  </si>
+  <si>
+    <t>继电器输出</t>
+  </si>
+  <si>
+    <t>晶体管输出</t>
+  </si>
+  <si>
+    <t>TTL输出</t>
+  </si>
+  <si>
+    <t>无保险丝</t>
+  </si>
+  <si>
+    <t>带短路保护</t>
+  </si>
+  <si>
+    <t>是否独立输出</t>
+  </si>
+  <si>
+    <t>数字量输入输出混合模块</t>
+  </si>
+  <si>
+    <t>中断模块</t>
+  </si>
+  <si>
+    <t>点数</t>
+  </si>
+  <si>
+    <t>连接器</t>
+  </si>
+  <si>
+    <t>焊接类性</t>
+  </si>
+  <si>
+    <t>端子台适配器</t>
+  </si>
+  <si>
+    <t>连接器/端子排适配器</t>
+  </si>
+  <si>
+    <t>漏型</t>
+  </si>
+  <si>
+    <t>源型</t>
+  </si>
+  <si>
+    <t>漏型输入</t>
+  </si>
+  <si>
+    <t>源型输入</t>
+  </si>
+  <si>
+    <t>电缆</t>
+  </si>
+  <si>
+    <t>可由于A6TB</t>
+  </si>
+  <si>
+    <t>可由于A6TE-SRN</t>
+  </si>
+  <si>
+    <t>模拟量输入模块</t>
+  </si>
+  <si>
+    <t>通道数</t>
+  </si>
+  <si>
+    <t>输入类型</t>
+  </si>
+  <si>
+    <t>模拟量输出类型</t>
+  </si>
+  <si>
+    <t>输出类型</t>
+  </si>
+  <si>
+    <t>通道隔离模拟量输出模块</t>
+  </si>
+  <si>
+    <t>温度输入模块</t>
+  </si>
+  <si>
+    <t>温度控制模块</t>
+  </si>
+  <si>
+    <t>是否带检测</t>
+  </si>
+  <si>
+    <t>回路控制模块</t>
+  </si>
+  <si>
+    <t>PID模块</t>
+  </si>
+  <si>
+    <t>定位模块</t>
+  </si>
+  <si>
+    <t>可控制轴数</t>
+  </si>
+  <si>
+    <t>是否带计数器</t>
+  </si>
+  <si>
+    <t>通道隔离脉冲输入模块</t>
+  </si>
+  <si>
+    <t>高速计数模块</t>
+  </si>
+  <si>
+    <t>脉冲速率</t>
+  </si>
+  <si>
+    <t>输入电压类型</t>
+  </si>
+  <si>
+    <t>通讯模块</t>
+  </si>
+  <si>
+    <t>光纤类型</t>
+  </si>
+  <si>
+    <t>是否带外部供电</t>
+  </si>
+  <si>
+    <t>是否远程站</t>
+  </si>
+  <si>
+    <t>双环</t>
+  </si>
+  <si>
+    <t>是否同轴电缆</t>
+  </si>
+  <si>
+    <t>通讯方式</t>
+  </si>
+  <si>
+    <t>CC-LINK  模块</t>
+  </si>
+  <si>
+    <t>CC-LINK/LT模块</t>
+  </si>
+  <si>
+    <t>FL-NETWORK 模块</t>
+  </si>
+  <si>
+    <t>AS-I主站模块</t>
+  </si>
+  <si>
+    <t>Modbus Master/Slave模块</t>
+  </si>
+  <si>
+    <t>Modbus TCP/IP 模块</t>
   </si>
   <si>
     <r>
@@ -311,7 +310,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ProfiBus-DP</t>
+      <t>ProfiBus-DP</t>
     </r>
     <r>
       <rPr>
@@ -329,7 +328,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(Master)</t>
+      <t>(Master)</t>
     </r>
     <r>
       <rPr>
@@ -338,7 +337,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">模块</t>
+      <t>模块</t>
     </r>
   </si>
   <si>
@@ -350,7 +349,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ProfiBus-DP</t>
+      <t>ProfiBus-DP</t>
     </r>
     <r>
       <rPr>
@@ -368,7 +367,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(Slave)</t>
+      <t>(Slave)</t>
     </r>
     <r>
       <rPr>
@@ -377,7 +376,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">模块</t>
+      <t>模块</t>
     </r>
   </si>
   <si>
@@ -389,7 +388,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">DeviceNet</t>
+      <t>DeviceNet</t>
     </r>
     <r>
       <rPr>
@@ -407,7 +406,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(Master)</t>
+      <t>(Master)</t>
     </r>
     <r>
       <rPr>
@@ -416,32 +415,32 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">模块</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">CC-Link  IE Fiekd模块</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MES接口模块</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web服务器模块</t>
-  </si>
-  <si>
-    <t xml:space="preserve">以太网模块</t>
-  </si>
-  <si>
-    <t xml:space="preserve">串行模块</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC-LINK IE模块</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MELSECNET/10H 模块</t>
-  </si>
-  <si>
-    <t xml:space="preserve">其它</t>
+      <t>模块</t>
+    </r>
+  </si>
+  <si>
+    <t>CC-Link  IE Fiekd模块</t>
+  </si>
+  <si>
+    <t>MES接口模块</t>
+  </si>
+  <si>
+    <t>Web服务器模块</t>
+  </si>
+  <si>
+    <t>以太网模块</t>
+  </si>
+  <si>
+    <t>串行模块</t>
+  </si>
+  <si>
+    <t>CC-LINK IE模块</t>
+  </si>
+  <si>
+    <t>MELSECNET/10H 模块</t>
+  </si>
+  <si>
+    <t>其它</t>
   </si>
   <si>
     <r>
@@ -452,7 +451,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">PCI</t>
+      <t>PCI</t>
     </r>
     <r>
       <rPr>
@@ -462,7 +461,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">总线</t>
+      <t>总线</t>
     </r>
     <r>
       <rPr>
@@ -471,7 +470,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">/PCI-X</t>
+      <t>/PCI-X</t>
     </r>
     <r>
       <rPr>
@@ -480,7 +479,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">总线的计算机</t>
+      <t>总线的计算机</t>
     </r>
     <r>
       <rPr>
@@ -489,7 +488,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">CC-Link</t>
+      <t>CC-Link</t>
     </r>
     <r>
       <rPr>
@@ -507,7 +506,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">IE</t>
+      <t>IE</t>
     </r>
     <r>
       <rPr>
@@ -516,7 +515,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">模块，光纤</t>
+      <t>模块，光纤</t>
     </r>
   </si>
   <si>
@@ -528,7 +527,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">PCI</t>
+      <t>PCI</t>
     </r>
     <r>
       <rPr>
@@ -538,7 +537,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">总线</t>
+      <t>总线</t>
     </r>
     <r>
       <rPr>
@@ -547,7 +546,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">/PCI-X</t>
+      <t>/PCI-X</t>
     </r>
     <r>
       <rPr>
@@ -556,7 +555,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">总线的计算机</t>
+      <t>总线的计算机</t>
     </r>
     <r>
       <rPr>
@@ -565,7 +564,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">CC-Link</t>
+      <t>CC-Link</t>
     </r>
     <r>
       <rPr>
@@ -583,7 +582,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">IE</t>
+      <t>IE</t>
     </r>
     <r>
       <rPr>
@@ -592,7 +591,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">模块，光纤，外部供电</t>
+      <t>模块，光纤，外部供电</t>
     </r>
   </si>
   <si>
@@ -604,7 +603,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">PCI</t>
+      <t>PCI</t>
     </r>
     <r>
       <rPr>
@@ -622,7 +621,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Express</t>
+      <t>Express</t>
     </r>
     <r>
       <rPr>
@@ -631,7 +630,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">总线的计算机</t>
+      <t>总线的计算机</t>
     </r>
     <r>
       <rPr>
@@ -640,7 +639,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">MELSECNET/10H</t>
+      <t>MELSECNET/10H</t>
     </r>
     <r>
       <rPr>
@@ -658,7 +657,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">模块，光纤</t>
+      <t>模块，光纤</t>
     </r>
   </si>
   <si>
@@ -670,7 +669,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">PCI</t>
+      <t>PCI</t>
     </r>
     <r>
       <rPr>
@@ -680,7 +679,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">总线的计算机</t>
+      <t>总线的计算机</t>
     </r>
     <r>
       <rPr>
@@ -689,7 +688,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">MELSECNET/10H</t>
+      <t>MELSECNET/10H</t>
     </r>
     <r>
       <rPr>
@@ -707,7 +706,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">模块，光纤</t>
+      <t>模块，光纤</t>
     </r>
   </si>
   <si>
@@ -719,7 +718,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">PCI</t>
+      <t>PCI</t>
     </r>
     <r>
       <rPr>
@@ -729,7 +728,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">总线的计算机</t>
+      <t>总线的计算机</t>
     </r>
     <r>
       <rPr>
@@ -738,7 +737,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">MELSECNET/10H</t>
+      <t>MELSECNET/10H</t>
     </r>
     <r>
       <rPr>
@@ -756,7 +755,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">模块，光纤，外部供电</t>
+      <t>模块，光纤，外部供电</t>
     </r>
   </si>
   <si>
@@ -768,7 +767,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">PCI</t>
+      <t>PCI</t>
     </r>
     <r>
       <rPr>
@@ -778,7 +777,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">总线的计算机</t>
+      <t>总线的计算机</t>
     </r>
     <r>
       <rPr>
@@ -787,7 +786,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">MELSECNET/10H</t>
+      <t>MELSECNET/10H</t>
     </r>
     <r>
       <rPr>
@@ -805,7 +804,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">模块，</t>
+      <t>模块，</t>
     </r>
     <r>
       <rPr>
@@ -814,7 +813,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">SI/QSI/H-PC</t>
+      <t>SI/QSI/H-PC</t>
     </r>
     <r>
       <rPr>
@@ -832,7 +831,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">光纤</t>
+      <t>光纤</t>
     </r>
   </si>
   <si>
@@ -844,7 +843,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">PCI</t>
+      <t>PCI</t>
     </r>
     <r>
       <rPr>
@@ -854,7 +853,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">总线的计算机</t>
+      <t>总线的计算机</t>
     </r>
     <r>
       <rPr>
@@ -863,7 +862,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">MELSECNET/10H</t>
+      <t>MELSECNET/10H</t>
     </r>
     <r>
       <rPr>
@@ -881,7 +880,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">模块，同轴电缆</t>
+      <t>模块，同轴电缆</t>
     </r>
   </si>
   <si>
@@ -893,7 +892,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">PCI</t>
+      <t>PCI</t>
     </r>
     <r>
       <rPr>
@@ -911,7 +910,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Express</t>
+      <t>Express</t>
     </r>
     <r>
       <rPr>
@@ -920,7 +919,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">总线的计算机</t>
+      <t>总线的计算机</t>
     </r>
     <r>
       <rPr>
@@ -929,7 +928,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">CC-LINK</t>
+      <t>CC-LINK</t>
     </r>
     <r>
       <rPr>
@@ -938,7 +937,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">接口，主站</t>
+      <t>接口，主站</t>
     </r>
     <r>
       <rPr>
@@ -947,7 +946,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">/</t>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -956,7 +955,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">本地站</t>
+      <t>本地站</t>
     </r>
   </si>
   <si>
@@ -968,7 +967,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">PCI</t>
+      <t>PCI</t>
     </r>
     <r>
       <rPr>
@@ -978,7 +977,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">总线的计算机</t>
+      <t>总线的计算机</t>
     </r>
     <r>
       <rPr>
@@ -987,7 +986,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">CC-LINK</t>
+      <t>CC-LINK</t>
     </r>
     <r>
       <rPr>
@@ -996,7 +995,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">接口，主站</t>
+      <t>接口，主站</t>
     </r>
     <r>
       <rPr>
@@ -1005,7 +1004,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">/</t>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -1014,74 +1013,61 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">本地站</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I/O点数（个）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">程序容量（单位）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">耗电电流(毫安)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是否支持冗余（N否，Y是）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xxcup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自带端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xxxcup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xx端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
+      <t>本地站</t>
+    </r>
+  </si>
+  <si>
+    <t>I/O点数（个）</t>
+  </si>
+  <si>
+    <t>程序容量（单位）</t>
+  </si>
+  <si>
+    <t>耗电电流(毫安)</t>
+  </si>
+  <si>
+    <t>是否支持冗余（N否，Y是）</t>
+  </si>
+  <si>
+    <t>xxxcup</t>
+  </si>
+  <si>
+    <t>xx端口</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q00JCPU</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8K</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS232</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1116,6 +1102,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1144,7 +1136,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1152,77 +1144,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1281,454 +1244,742 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A2:L1048576"/>
+  <dimension ref="A2:L54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H34" activeCellId="0" sqref="H34"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.69"/>
+    <col min="1" max="1" width="51" customWidth="1"/>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="1025" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="J12" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="K12" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="L12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="I13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="E26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="F28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>83</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" t="s">
         <v>39</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -1738,331 +1989,304 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:9">
       <c r="B30" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" t="s">
         <v>39</v>
       </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:9">
       <c r="B31" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" t="s">
         <v>39</v>
       </c>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:9">
       <c r="B32" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" t="s">
         <v>39</v>
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:9">
       <c r="B33" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" t="s">
         <v>39</v>
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:9">
       <c r="B34" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G34" t="s">
         <v>39</v>
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:9">
       <c r="B35" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="G35" t="s">
         <v>39</v>
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:9">
       <c r="B36" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="G36" t="s">
         <v>39</v>
       </c>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:9">
       <c r="B37" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" t="s">
         <v>39</v>
       </c>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:9">
       <c r="B38" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" t="s">
         <v>39</v>
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:9">
       <c r="B39" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" t="s">
         <v>39</v>
       </c>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:9">
       <c r="B40" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="G40" t="s">
         <v>39</v>
       </c>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:9">
       <c r="B41" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="G41" t="s">
         <v>39</v>
       </c>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:9">
       <c r="B42" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G42" s="0" t="s">
+      <c r="G42" t="s">
         <v>39</v>
       </c>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:9">
       <c r="B43" s="3" t="s">
         <v>100</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I43" s="0" t="s">
+      <c r="I43" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:9">
       <c r="B44" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" t="s">
         <v>82</v>
       </c>
-      <c r="G44" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
         <v>103</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:9">
       <c r="B47" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:9">
       <c r="B48" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="2:2">
       <c r="B49" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="2:2">
       <c r="B50" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="2:2">
       <c r="B51" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="2:2">
       <c r="B52" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="2:2">
       <c r="B53" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="2:2">
       <c r="B54" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.69"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="26.125" customWidth="1"/>
+    <col min="3" max="4" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="38.875" customWidth="1"/>
+    <col min="8" max="1025" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" s="8" customFormat="1">
+      <c r="A1" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2">
+        <v>256</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2">
+        <v>3000</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.69"/>
+    <col min="1" max="1025" width="8.75" customWidth="1"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/doc/Q系列.xlsx
+++ b/doc/Q系列.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="168">
   <si>
     <t>CPU模块</t>
   </si>
@@ -1026,35 +1026,210 @@
     <t>耗电电流(毫安)</t>
   </si>
   <si>
+    <t>名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q00JCPU</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8K</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS232</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q00CPU</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS232</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>有无存储卡接口</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>是否支持冗余（N否，Y是）</t>
-  </si>
-  <si>
-    <t>xxxcup</t>
-  </si>
-  <si>
-    <t>xx端口</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>有无存储卡接口（N无，Y有）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q01CPU</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>14K</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q02CPU</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>28K</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS232,USB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q00JCPU</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>8K</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>RS232</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q02HCPU</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS233,USB</t>
+  </si>
+  <si>
+    <t>Q06HCPU</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>60K</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q12HCPU</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>124K</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q25HCPU</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>252K</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q03UDECPU</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>30K</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否支持多CPU高速通信</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否支持多CPU高速通信（N无，Y是）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB,Ethernet</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q04UDEHCPU</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>40K</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q06UDEHCPU</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q10UDEHCPU</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100K</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q13UDEHCPU</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>130K</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q20UDEHCPU</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>200K</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q26UDEHCPU</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>260K</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q50UDEHCPU</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>500K</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q100UDEHCPU</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000K</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q02PHCPU</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q06PHCPU</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q12PHCPU</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>120K</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q25PHCPU</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q12PRHCPU</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q25PRHCPU</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1149,7 +1324,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1179,6 +1354,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1544,8 +1722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1556,7 +1734,7 @@
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="21.375" customWidth="1"/>
     <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.125" customWidth="1"/>
     <col min="9" max="1025" width="8.75" customWidth="1"/>
   </cols>
@@ -1579,6 +1757,12 @@
       </c>
       <c r="F2" t="s">
         <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2190,26 +2374,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.125" customWidth="1"/>
     <col min="3" max="4" width="17.25" customWidth="1"/>
     <col min="5" max="5" width="17.875" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
     <col min="7" max="7" width="38.875" customWidth="1"/>
-    <col min="8" max="1025" width="8.75" customWidth="1"/>
+    <col min="8" max="8" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="1025" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1">
+    <row r="1" spans="1:8" s="8" customFormat="1">
       <c r="A1" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>113</v>
@@ -2223,48 +2408,553 @@
       <c r="E1" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="F1" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B2">
         <v>256</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E2">
         <v>3000</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>117</v>
+        <v>120</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4">
+        <v>1024</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>119</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5">
+        <v>4096</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6">
+        <v>4096</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7">
+        <v>4096</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8">
+        <v>4096</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9">
+        <v>4096</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10">
+        <v>4096</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11">
+        <v>4096</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="4">
+        <v>4096</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13">
+        <v>4096</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="4">
+        <v>4096</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="4">
+        <v>4096</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="4">
+        <v>4096</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="4">
+        <v>4096</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="4">
+        <v>4096</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19">
+        <v>4096</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="4">
+        <v>4096</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="4">
+        <v>4096</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="4">
+        <v>4096</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23">
+        <v>4096</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24">
+        <v>4096</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Q系列.xlsx
+++ b/doc/Q系列.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="表头" sheetId="1" r:id="rId1"/>
     <sheet name="cpu" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="主基板" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="168">
   <si>
     <t>CPU模块</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>是否支持冗余</t>
-  </si>
-  <si>
-    <t>主基板</t>
   </si>
   <si>
     <t>输入电压</t>
@@ -1230,6 +1227,10 @@
   </si>
   <si>
     <t>Q25PRHCPU</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>主基板</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1722,8 +1723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1759,610 +1760,610 @@
         <v>5</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>31</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>32</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>33</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>34</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>35</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>36</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>37</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>38</v>
-      </c>
-      <c r="L12" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
         <v>40</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>42</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>43</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>44</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>45</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
         <v>49</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
         <v>51</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
         <v>54</v>
       </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>55</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>56</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>57</v>
-      </c>
-      <c r="F18" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
         <v>59</v>
       </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>60</v>
-      </c>
-      <c r="E19" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
         <v>62</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>63</v>
       </c>
-      <c r="C20" t="s">
-        <v>64</v>
-      </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
         <v>65</v>
       </c>
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" t="s">
-        <v>66</v>
-      </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
         <v>63</v>
       </c>
-      <c r="C23" t="s">
-        <v>64</v>
-      </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
         <v>69</v>
       </c>
-      <c r="B24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" t="s">
-        <v>70</v>
-      </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
         <v>71</v>
       </c>
-      <c r="B25" t="s">
-        <v>72</v>
-      </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
         <v>73</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" t="s">
         <v>74</v>
       </c>
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" t="s">
-        <v>75</v>
-      </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
         <v>77</v>
       </c>
-      <c r="B28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>78</v>
       </c>
-      <c r="D28" t="s">
-        <v>79</v>
-      </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
         <v>80</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>81</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>82</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>83</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>84</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="G29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:9">
       <c r="B33" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:9">
       <c r="B34" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:9">
       <c r="B41" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="B48" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2376,7 +2377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -2394,567 +2395,567 @@
   <sheetData>
     <row r="1" spans="1:8" s="8" customFormat="1">
       <c r="A1" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="H1" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2">
         <v>256</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="E2">
         <v>3000</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3">
         <v>1024</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4">
         <v>1024</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5">
         <v>4096</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="H5" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6">
         <v>4096</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7">
         <v>4096</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8">
         <v>4096</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9">
         <v>4096</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="H9" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10">
         <v>4096</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11">
         <v>4096</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12" s="4">
         <v>4096</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B13">
         <v>4096</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B14" s="4">
         <v>4096</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B15" s="4">
         <v>4096</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" s="4">
         <v>4096</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B17" s="4">
         <v>4096</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B18" s="4">
         <v>4096</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19">
         <v>4096</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="F19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="H19" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B20" s="4">
         <v>4096</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B21" s="4">
         <v>4096</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B22" s="4">
         <v>4096</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B23">
         <v>4096</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B24">
         <v>4096</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2966,15 +2967,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1025" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="1025" width="8.75" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
